--- a/01-設計書/設計書.xlsx
+++ b/01-設計書/設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -822,6 +822,26 @@
   <si>
     <t>Cancel</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/training/basics/data-storage/shared-preferences.html</t>
+  </si>
+  <si>
+    <t>Saving Key-Value Sets</t>
+  </si>
+  <si>
+    <t>Setup support library</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/topics/ui/settings.html</t>
+  </si>
+  <si>
+    <t>Settings Guide</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/guide/components/intents-filters.html</t>
   </si>
 </sst>
 </file>
@@ -1453,17 +1473,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1579,6 +1588,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1592,7 +1614,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1756,82 +1778,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1840,27 +1805,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -2643,34 +2666,34 @@
     </row>
     <row r="5" spans="4:95" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="4:95" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="90" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
+      <c r="AF6" s="71" t="s">
         <v>113</v>
       </c>
       <c r="AG6" s="5"/>
@@ -2769,10 +2792,10 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="65" t="s">
+      <c r="AD8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="66"/>
+      <c r="AE8" s="81"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -2782,7 +2805,7 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
-      <c r="AM8" s="78" t="s">
+      <c r="AM8" s="93" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="9"/>
@@ -2805,10 +2828,10 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="65" t="s">
+      <c r="BH8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="66"/>
+      <c r="BI8" s="81"/>
       <c r="BJ8" s="7"/>
       <c r="BN8" s="36" t="s">
         <v>32</v>
@@ -2837,10 +2860,10 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="65" t="s">
+      <c r="CO8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="CP8" s="66"/>
+      <c r="CP8" s="81"/>
       <c r="CQ8" s="36" t="s">
         <v>36</v>
       </c>
@@ -2869,8 +2892,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="68"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="83"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -2878,7 +2901,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="79"/>
+      <c r="AM9" s="94"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -2899,8 +2922,8 @@
       <c r="BE9" s="12"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="68"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="83"/>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="12"/>
@@ -2924,8 +2947,8 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="67"/>
-      <c r="CP9" s="68"/>
+      <c r="CO9" s="82"/>
+      <c r="CP9" s="83"/>
     </row>
     <row r="10" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
@@ -3091,7 +3114,7 @@
       <c r="AC12" s="14">
         <v>5</v>
       </c>
-      <c r="AE12" s="82">
+      <c r="AE12" s="66">
         <v>4</v>
       </c>
       <c r="AF12" s="7"/>
@@ -3100,13 +3123,13 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="69" t="s">
+      <c r="AL12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="70"/>
-      <c r="AO12" s="70"/>
-      <c r="AP12" s="71"/>
+      <c r="AM12" s="85"/>
+      <c r="AN12" s="85"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="86"/>
       <c r="AQ12" s="5"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="9"/>
@@ -3160,11 +3183,11 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="74"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="88"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="89"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="15"/>
       <c r="AS13" s="5"/>
@@ -3210,7 +3233,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="17"/>
-      <c r="AE14" s="81" t="s">
+      <c r="AE14" s="65" t="s">
         <v>108</v>
       </c>
       <c r="AF14" s="7"/>
@@ -3219,11 +3242,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="74"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="89"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="5"/>
@@ -3307,11 +3330,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="74"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="88"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="88"/>
+      <c r="AP15" s="89"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="5"/>
@@ -3393,11 +3416,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="77"/>
+      <c r="AL16" s="90"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="92"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="11"/>
       <c r="AS16" s="12"/>
@@ -5078,7 +5101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5092,63 +5115,63 @@
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="92"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="103"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5268,17 +5291,17 @@
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
-      <c r="H39" s="80" t="s">
+      <c r="H39" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="80"/>
+      <c r="I39" s="100"/>
       <c r="J39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="80" t="s">
+      <c r="K39" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="80"/>
+      <c r="L39" s="100"/>
       <c r="M39" s="52" t="s">
         <v>58</v>
       </c>
@@ -5335,10 +5358,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5413,7 +5436,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="67" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -5469,7 +5492,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="101" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -5477,7 +5500,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="59" t="s">
         <v>85</v>
       </c>
@@ -5537,7 +5560,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="101" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -5545,26 +5568,50 @@
       </c>
     </row>
     <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="87"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="91"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="86"/>
+      <c r="B30" s="103" t="s">
+        <v>122</v>
+      </c>
       <c r="C30" s="35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-      <c r="C31" s="35"/>
+    <row r="31" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="68"/>
+      <c r="C33" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="45"/>
+      <c r="C34" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01-設計書/設計書.xlsx
+++ b/01-設計書/設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
@@ -101,38 +101,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Copy</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -767,10 +741,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>http://developer.android.com/guide/topics/manifest/uses-sdk-element.html</t>
   </si>
   <si>
@@ -842,6 +812,40 @@
   </si>
   <si>
     <t>http://developer.android.com/guide/components/intents-filters.html</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/Commons:Chinese_characters_decomposition</t>
+  </si>
+  <si>
+    <t>wikimedia commons</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://www.yellowbridge.com/chinese/character-etymology.php?zi=%E7%89%A2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>https://code.google.com/p/cjklib/wiki/DatabaseScheme</t>
+  </si>
+  <si>
+    <t>Interesting Project in Python</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力した漢字を全部ここに入れる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -987,12 +991,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,6 +1009,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1039,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1606,6 +1611,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1614,7 +1645,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1778,13 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1796,7 +1821,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1810,7 +1835,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,10 +1909,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1915,7 +1954,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1961,13 +2000,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2013,13 +2052,13 @@
     <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>32655</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2123,7 +2162,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2635,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:CQ54"/>
+  <dimension ref="D2:CQ55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2666,35 +2705,35 @@
     </row>
     <row r="5" spans="4:95" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="4:95" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="69" t="s">
         <v>112</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="71" t="s">
-        <v>113</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
@@ -3006,45 +3045,38 @@
       <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
       <c r="BG10" s="5"/>
-      <c r="BH10" s="5">
-        <v>6</v>
-      </c>
+      <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
       <c r="BJ10" s="7"/>
-      <c r="BS10" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW10" s="36" t="s">
-        <v>40</v>
-      </c>
+      <c r="BS10" s="36"/>
+      <c r="BW10" s="36"/>
     </row>
     <row r="11" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
+      <c r="H11" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="107"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="5"/>
@@ -3052,19 +3084,13 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
@@ -3080,136 +3106,153 @@
       <c r="BE11" s="5"/>
       <c r="BF11" s="5"/>
       <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
+      <c r="BH11" s="5">
+        <v>6</v>
+      </c>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="7"/>
-    </row>
-    <row r="12" spans="4:95" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BS11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW11" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G12" s="6"/>
-      <c r="H12" s="8">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="8">
+      <c r="N12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="66">
-        <v>4</v>
-      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="14">
+      <c r="AL12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="7"/>
+    </row>
+    <row r="13" spans="4:95" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="6"/>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8">
+        <v>3</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="14">
         <v>5</v>
       </c>
-      <c r="BJ12" s="7"/>
-    </row>
-    <row r="13" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="G13" s="6"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="17"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="89"/>
+      <c r="AL13" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="85"/>
+      <c r="AN13" s="85"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="17"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="14">
+        <v>5</v>
+      </c>
       <c r="BJ13" s="7"/>
     </row>
-    <row r="14" spans="4:95" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="5"/>
@@ -3232,10 +3275,9 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="17"/>
-      <c r="AE14" s="65" t="s">
-        <v>108</v>
-      </c>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="17"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -3267,40 +3309,8 @@
       <c r="BH14" s="5"/>
       <c r="BI14" s="17"/>
       <c r="BJ14" s="7"/>
-      <c r="BN14" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="9"/>
-      <c r="BU14" s="9"/>
-      <c r="BV14" s="9"/>
-      <c r="BW14" s="10"/>
-      <c r="BX14" s="5"/>
-      <c r="BY14" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ14" s="40"/>
-      <c r="CA14" s="40"/>
-      <c r="CB14" s="40"/>
-      <c r="CC14" s="40"/>
-      <c r="CD14" s="40"/>
-      <c r="CE14" s="40"/>
-      <c r="CF14" s="40"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="40"/>
-      <c r="CI14" s="40"/>
-      <c r="CJ14" s="40"/>
-      <c r="CK14" s="40"/>
-      <c r="CL14" s="40"/>
-      <c r="CM14" s="40"/>
-      <c r="CN14" s="40"/>
-      <c r="CO14" s="40"/>
-      <c r="CP14" s="41"/>
-    </row>
-    <row r="15" spans="4:95" x14ac:dyDescent="0.2">
-      <c r="D15" s="37" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="15" spans="4:95" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="5"/>
@@ -3323,7 +3333,9 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="17"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="17"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -3355,173 +3367,183 @@
       <c r="BH15" s="5"/>
       <c r="BI15" s="17"/>
       <c r="BJ15" s="7"/>
-      <c r="BS15" s="15">
-        <v>2</v>
-      </c>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
-      <c r="BV15" s="5"/>
-      <c r="BW15" s="16"/>
+      <c r="BN15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="9"/>
+      <c r="BU15" s="9"/>
+      <c r="BV15" s="9"/>
+      <c r="BW15" s="10"/>
       <c r="BX15" s="5"/>
-      <c r="BY15" s="8">
+      <c r="BY15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="BZ15" s="9"/>
-      <c r="CA15" s="9"/>
-      <c r="CB15" s="9"/>
-      <c r="CC15" s="9"/>
-      <c r="CD15" s="9"/>
-      <c r="CE15" s="9"/>
-      <c r="CF15" s="9"/>
-      <c r="CG15" s="9"/>
-      <c r="CH15" s="9"/>
-      <c r="CI15" s="9"/>
-      <c r="CJ15" s="9"/>
-      <c r="CK15" s="9"/>
-      <c r="CL15" s="9"/>
-      <c r="CM15" s="9"/>
-      <c r="CN15" s="9"/>
-      <c r="CO15" s="9"/>
-      <c r="CP15" s="14">
-        <v>5</v>
-      </c>
+      <c r="BZ15" s="40"/>
+      <c r="CA15" s="40"/>
+      <c r="CB15" s="40"/>
+      <c r="CC15" s="40"/>
+      <c r="CD15" s="40"/>
+      <c r="CE15" s="40"/>
+      <c r="CF15" s="40"/>
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40"/>
+      <c r="CI15" s="40"/>
+      <c r="CJ15" s="40"/>
+      <c r="CK15" s="40"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="40"/>
+      <c r="CN15" s="40"/>
+      <c r="CO15" s="40"/>
+      <c r="CP15" s="41"/>
     </row>
     <row r="16" spans="4:95" x14ac:dyDescent="0.2">
+      <c r="D16" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="18"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="17"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="91"/>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="92"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="88"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="89"/>
       <c r="AQ16" s="5"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="18"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="17"/>
       <c r="BJ16" s="7"/>
-      <c r="BS16" s="15"/>
+      <c r="BS16" s="15">
+        <v>2</v>
+      </c>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
       <c r="BV16" s="5"/>
       <c r="BW16" s="16"/>
       <c r="BX16" s="5"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="5"/>
-      <c r="CA16" s="5"/>
-      <c r="CB16" s="5"/>
-      <c r="CC16" s="5"/>
-      <c r="CD16" s="5"/>
-      <c r="CE16" s="5"/>
-      <c r="CF16" s="5"/>
-      <c r="CG16" s="5"/>
-      <c r="CH16" s="5"/>
-      <c r="CI16" s="5"/>
-      <c r="CJ16" s="5"/>
-      <c r="CK16" s="5"/>
-      <c r="CL16" s="5"/>
-      <c r="CM16" s="5"/>
-      <c r="CN16" s="5"/>
-      <c r="CO16" s="5"/>
-      <c r="CP16" s="17"/>
+      <c r="BY16" s="8">
+        <v>3</v>
+      </c>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="18"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="91"/>
+      <c r="AO17" s="91"/>
+      <c r="AP17" s="92"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="18"/>
       <c r="BJ17" s="7"/>
       <c r="BS17" s="15"/>
       <c r="BT17" s="5"/>
@@ -3550,9 +3572,7 @@
     </row>
     <row r="18" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -3582,9 +3602,7 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -3636,151 +3654,179 @@
     </row>
     <row r="19" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G19" s="6"/>
-      <c r="H19" s="8">
+      <c r="H19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="14">
-        <v>5</v>
-      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="8">
+      <c r="AL19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
-      <c r="BH19" s="9"/>
-      <c r="BI19" s="14">
-        <v>5</v>
-      </c>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
       <c r="BJ19" s="7"/>
-      <c r="BS19" s="11"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
-      <c r="BW19" s="13"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="5"/>
+      <c r="BW19" s="16"/>
       <c r="BX19" s="5"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="12"/>
-      <c r="CE19" s="12"/>
-      <c r="CF19" s="12"/>
-      <c r="CG19" s="12"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
-      <c r="CJ19" s="12"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="18"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="5"/>
+      <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
+      <c r="CI19" s="5"/>
+      <c r="CJ19" s="5"/>
+      <c r="CK19" s="5"/>
+      <c r="CL19" s="5"/>
+      <c r="CM19" s="5"/>
+      <c r="CN19" s="5"/>
+      <c r="CO19" s="5"/>
+      <c r="CP19" s="17"/>
     </row>
     <row r="20" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="17"/>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="14">
+        <v>5</v>
+      </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="17"/>
+      <c r="AL20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="14">
+        <v>5</v>
+      </c>
       <c r="BJ20" s="7"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="13"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
+      <c r="CB20" s="12"/>
+      <c r="CC20" s="12"/>
+      <c r="CD20" s="12"/>
+      <c r="CE20" s="12"/>
+      <c r="CF20" s="12"/>
+      <c r="CG20" s="12"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="12"/>
+      <c r="CJ20" s="12"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="12"/>
+      <c r="CO20" s="12"/>
+      <c r="CP20" s="18"/>
     </row>
     <row r="21" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G21" s="6"/>
@@ -3865,7 +3911,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="19"/>
+      <c r="AE22" s="17"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
@@ -3900,30 +3946,30 @@
     </row>
     <row r="23" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G23" s="6"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="18"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
@@ -3956,33 +4002,33 @@
       <c r="BI23" s="17"/>
       <c r="BJ23" s="7"/>
     </row>
-    <row r="24" spans="7:94" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="22"/>
+    <row r="24" spans="7:94" x14ac:dyDescent="0.2">
+      <c r="G24" s="6"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -4014,33 +4060,33 @@
       <c r="BI24" s="17"/>
       <c r="BJ24" s="7"/>
     </row>
-    <row r="25" spans="7:94" x14ac:dyDescent="0.2">
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
+    <row r="25" spans="7:94" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="22"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -4072,17 +4118,16 @@
       <c r="BI25" s="17"/>
       <c r="BJ25" s="7"/>
     </row>
-    <row r="26" spans="7:94" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4130,20 +4175,18 @@
       <c r="BH26" s="5"/>
       <c r="BI26" s="17"/>
       <c r="BJ26" s="7"/>
-      <c r="BN26" s="36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="7:94" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="7:94" ht="23.4" x14ac:dyDescent="0.2">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -4191,6 +4234,9 @@
       <c r="BH27" s="5"/>
       <c r="BI27" s="17"/>
       <c r="BJ27" s="7"/>
+      <c r="BN27" s="36" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G28" s="5"/>
@@ -4421,7 +4467,7 @@
       <c r="BF31" s="5"/>
       <c r="BG31" s="5"/>
       <c r="BH31" s="5"/>
-      <c r="BI31" s="19"/>
+      <c r="BI31" s="17"/>
       <c r="BJ31" s="7"/>
     </row>
     <row r="32" spans="7:94" x14ac:dyDescent="0.2">
@@ -4514,33 +4560,33 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="12"/>
-      <c r="AY33" s="12"/>
-      <c r="AZ33" s="12"/>
-      <c r="BA33" s="12"/>
-      <c r="BB33" s="12"/>
-      <c r="BC33" s="12"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="12"/>
-      <c r="BG33" s="12"/>
-      <c r="BH33" s="12"/>
-      <c r="BI33" s="18"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="19"/>
       <c r="BJ33" s="7"/>
     </row>
-    <row r="34" spans="6:80" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4571,34 +4617,34 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21"/>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="22"/>
-    </row>
-    <row r="35" spans="6:80" x14ac:dyDescent="0.2">
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="18"/>
+      <c r="BJ34" s="7"/>
+    </row>
+    <row r="35" spans="6:80" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4629,12 +4675,34 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-    </row>
-    <row r="36" spans="6:80" ht="28.2" x14ac:dyDescent="0.2">
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="21"/>
+      <c r="BA35" s="21"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="21"/>
+      <c r="BF35" s="21"/>
+      <c r="BG35" s="21"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="22"/>
+    </row>
+    <row r="36" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -4669,11 +4737,8 @@
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
-      <c r="AS36" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="6:80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="6:80" ht="28.2" x14ac:dyDescent="0.2">
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -4708,6 +4773,9 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
+      <c r="AS37" s="24" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G38" s="5"/>
@@ -4745,10 +4813,8 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="F39" s="25" t="s">
-        <v>7</v>
-      </c>
+    <row r="39" spans="6:80" x14ac:dyDescent="0.2">
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -4779,14 +4845,13 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
-      <c r="AL39" s="26"/>
+      <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
-      <c r="CA39" s="25"/>
     </row>
     <row r="40" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G40" s="27" t="s">
-        <v>8</v>
+      <c r="F40" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -4818,14 +4883,14 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
+      <c r="AL40" s="26"/>
       <c r="AM40" s="5"/>
-      <c r="AN40" s="28"/>
-      <c r="CB40" s="28"/>
+      <c r="AN40" s="5"/>
+      <c r="CA40" s="25"/>
     </row>
     <row r="41" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G41" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -4859,12 +4924,12 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
-      <c r="AN41" s="29"/>
-      <c r="CB41" s="30"/>
+      <c r="AN41" s="28"/>
+      <c r="CB41" s="28"/>
     </row>
     <row r="42" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G42" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -4903,7 +4968,7 @@
     </row>
     <row r="43" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G43" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -4942,7 +5007,7 @@
     </row>
     <row r="44" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G44" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -4976,12 +5041,12 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
-      <c r="AN44" s="28"/>
+      <c r="AN44" s="29"/>
       <c r="CB44" s="30"/>
     </row>
     <row r="45" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G45" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -5015,11 +5080,13 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
-      <c r="AN45" s="29"/>
+      <c r="AN45" s="28"/>
       <c r="CB45" s="30"/>
     </row>
     <row r="46" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G46" s="27"/>
+      <c r="G46" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5052,16 +5119,50 @@
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
-      <c r="AN46" s="27"/>
+      <c r="AN46" s="29"/>
       <c r="CB46" s="30"/>
     </row>
     <row r="47" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G47" s="28"/>
-      <c r="AN47" s="30"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="27"/>
       <c r="CB47" s="30"/>
     </row>
     <row r="48" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G48" s="28"/>
+      <c r="AN48" s="30"/>
+      <c r="CB48" s="30"/>
     </row>
     <row r="49" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G49" s="28"/>
@@ -5080,12 +5181,15 @@
     </row>
     <row r="54" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="G55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AD8:AE9"/>
     <mergeCell ref="BH8:BI9"/>
-    <mergeCell ref="AL12:AP16"/>
+    <mergeCell ref="AL13:AP17"/>
     <mergeCell ref="AM8:AM9"/>
     <mergeCell ref="CO8:CP9"/>
   </mergeCells>
@@ -5115,63 +5219,63 @@
   <sheetData>
     <row r="3" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="2:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="71"/>
+      <c r="C6" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-    </row>
-    <row r="6" spans="2:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="73"/>
-      <c r="C6" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
       <c r="E8" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="99"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5358,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C34"/>
+  <dimension ref="B1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5436,7 +5540,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -5561,57 +5665,79 @@
     </row>
     <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="102"/>
       <c r="C28" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="72"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="103" t="s">
+    </row>
+    <row r="32" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="104"/>
+      <c r="C33" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
-      <c r="C33" s="35" t="s">
+    </row>
+    <row r="34" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="103" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="104"/>
+    <row r="35" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="66"/>
+      <c r="C35" s="103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="45"/>
+      <c r="C37" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5633,9 +5759,10 @@
     <hyperlink ref="C18" r:id="rId11"/>
     <hyperlink ref="C20" r:id="rId12"/>
     <hyperlink ref="C19" r:id="rId13" location="attr_android:imeOptions"/>
+    <hyperlink ref="C35" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/01-設計書/設計書.xlsx
+++ b/01-設計書/設計書.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -847,12 +847,36 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>croll up/down button</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1041,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1645,7 +1683,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1840,75 +1878,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1921,6 +1890,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2058,7 +2102,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2162,7 +2206,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2674,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:CQ55"/>
+  <dimension ref="D2:CQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2831,10 +2875,10 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="80" t="s">
+      <c r="AD8" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="81"/>
+      <c r="AE8" s="87"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -2844,7 +2888,7 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
-      <c r="AM8" s="93" t="s">
+      <c r="AM8" s="99" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="9"/>
@@ -2867,10 +2911,10 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="80" t="s">
+      <c r="BH8" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="81"/>
+      <c r="BI8" s="87"/>
       <c r="BJ8" s="7"/>
       <c r="BN8" s="36" t="s">
         <v>32</v>
@@ -2899,10 +2943,10 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="80" t="s">
+      <c r="CO8" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="CP8" s="81"/>
+      <c r="CP8" s="87"/>
       <c r="CQ8" s="36" t="s">
         <v>36</v>
       </c>
@@ -2931,8 +2975,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="83"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="89"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -2940,7 +2984,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="94"/>
+      <c r="AM9" s="100"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -2961,8 +3005,8 @@
       <c r="BE9" s="12"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="82"/>
-      <c r="BI9" s="83"/>
+      <c r="BH9" s="88"/>
+      <c r="BI9" s="89"/>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="12"/>
@@ -2986,8 +3030,8 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="82"/>
-      <c r="CP9" s="83"/>
+      <c r="CO9" s="88"/>
+      <c r="CP9" s="89"/>
     </row>
     <row r="10" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
@@ -3053,29 +3097,29 @@
     </row>
     <row r="11" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G11" s="6"/>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="107"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="84"/>
       <c r="AC11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="7"/>
@@ -3222,13 +3266,13 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="84" t="s">
+      <c r="AL13" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="86"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="92"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="9"/>
@@ -3284,11 +3328,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="89"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="95"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="5"/>
@@ -3342,11 +3386,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="88"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="89"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="95"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="5"/>
@@ -3432,11 +3476,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="87"/>
-      <c r="AM16" s="88"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="89"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="95"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="5"/>
@@ -3520,11 +3564,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="91"/>
-      <c r="AO17" s="91"/>
-      <c r="AP17" s="92"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="98"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="11"/>
       <c r="AS17" s="12"/>
@@ -4060,33 +4104,35 @@
       <c r="BI24" s="17"/>
       <c r="BJ24" s="7"/>
     </row>
-    <row r="25" spans="7:94" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="22"/>
+    <row r="25" spans="7:94" x14ac:dyDescent="0.2">
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -4119,7 +4165,7 @@
       <c r="BJ25" s="7"/>
     </row>
     <row r="26" spans="7:94" x14ac:dyDescent="0.2">
-      <c r="G26" s="5"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4140,11 +4186,15 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="AB26" s="109" t="s">
+        <v>131</v>
+      </c>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
+      <c r="AD26" s="109" t="s">
+        <v>132</v>
+      </c>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -4176,34 +4226,33 @@
       <c r="BI26" s="17"/>
       <c r="BJ26" s="7"/>
     </row>
-    <row r="27" spans="7:94" ht="23.4" x14ac:dyDescent="0.2">
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
+    <row r="27" spans="7:94" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="22"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -4234,9 +4283,6 @@
       <c r="BH27" s="5"/>
       <c r="BI27" s="17"/>
       <c r="BJ27" s="7"/>
-      <c r="BN27" s="36" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="28" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G28" s="5"/>
@@ -4296,16 +4342,17 @@
       <c r="BI28" s="17"/>
       <c r="BJ28" s="7"/>
     </row>
-    <row r="29" spans="7:94" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:94" ht="23.4" x14ac:dyDescent="0.2">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="O29" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -4353,6 +4400,9 @@
       <c r="BH29" s="5"/>
       <c r="BI29" s="17"/>
       <c r="BJ29" s="7"/>
+      <c r="BN29" s="36" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="7:94" x14ac:dyDescent="0.2">
       <c r="G30" s="5"/>
@@ -4525,7 +4575,7 @@
       <c r="BF32" s="5"/>
       <c r="BG32" s="5"/>
       <c r="BH32" s="5"/>
-      <c r="BI32" s="19"/>
+      <c r="BI32" s="17"/>
       <c r="BJ32" s="7"/>
     </row>
     <row r="33" spans="6:80" x14ac:dyDescent="0.2">
@@ -4583,7 +4633,7 @@
       <c r="BF33" s="5"/>
       <c r="BG33" s="5"/>
       <c r="BH33" s="5"/>
-      <c r="BI33" s="19"/>
+      <c r="BI33" s="17"/>
       <c r="BJ33" s="7"/>
     </row>
     <row r="34" spans="6:80" x14ac:dyDescent="0.2">
@@ -4618,33 +4668,33 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="AY34" s="12"/>
-      <c r="AZ34" s="12"/>
-      <c r="BA34" s="12"/>
-      <c r="BB34" s="12"/>
-      <c r="BC34" s="12"/>
-      <c r="BD34" s="12"/>
-      <c r="BE34" s="12"/>
-      <c r="BF34" s="12"/>
-      <c r="BG34" s="12"/>
-      <c r="BH34" s="12"/>
-      <c r="BI34" s="18"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="19"/>
       <c r="BJ34" s="7"/>
     </row>
-    <row r="35" spans="6:80" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -4675,32 +4725,32 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="22"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="19"/>
+      <c r="BJ35" s="7"/>
     </row>
     <row r="36" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G36" s="5"/>
@@ -4733,12 +4783,34 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-    </row>
-    <row r="37" spans="6:80" ht="28.2" x14ac:dyDescent="0.2">
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="18"/>
+      <c r="BJ36" s="7"/>
+    </row>
+    <row r="37" spans="6:80" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -4769,13 +4841,32 @@
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AS37" s="24" t="s">
-        <v>6</v>
-      </c>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+      <c r="BB37" s="21"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="21"/>
+      <c r="BE37" s="21"/>
+      <c r="BF37" s="21"/>
+      <c r="BG37" s="21"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="22"/>
     </row>
     <row r="38" spans="6:80" x14ac:dyDescent="0.2">
       <c r="G38" s="5"/>
@@ -4813,7 +4904,7 @@
       <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
     </row>
-    <row r="39" spans="6:80" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:80" ht="28.2" x14ac:dyDescent="0.2">
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -4848,11 +4939,12 @@
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
-    </row>
-    <row r="40" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="F40" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="AS39" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="6:80" x14ac:dyDescent="0.2">
+      <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -4883,15 +4975,12 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
-      <c r="AL40" s="26"/>
+      <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
-      <c r="CA40" s="25"/>
-    </row>
-    <row r="41" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G41" s="27" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="41" spans="6:80" x14ac:dyDescent="0.2">
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -4924,12 +5013,11 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
-      <c r="AN41" s="28"/>
-      <c r="CB41" s="28"/>
+      <c r="AN41" s="5"/>
     </row>
     <row r="42" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G42" s="27" t="s">
-        <v>9</v>
+      <c r="F42" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -4961,14 +5049,14 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AL42" s="26"/>
       <c r="AM42" s="5"/>
-      <c r="AN42" s="29"/>
-      <c r="CB42" s="30"/>
+      <c r="AN42" s="5"/>
+      <c r="CA42" s="25"/>
     </row>
     <row r="43" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G43" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -5002,12 +5090,12 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
-      <c r="AN43" s="29"/>
-      <c r="CB43" s="30"/>
+      <c r="AN43" s="28"/>
+      <c r="CB43" s="28"/>
     </row>
     <row r="44" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G44" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -5046,7 +5134,7 @@
     </row>
     <row r="45" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G45" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -5080,12 +5168,12 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
       <c r="AM45" s="5"/>
-      <c r="AN45" s="28"/>
+      <c r="AN45" s="29"/>
       <c r="CB45" s="30"/>
     </row>
     <row r="46" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G46" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -5123,7 +5211,9 @@
       <c r="CB46" s="30"/>
     </row>
     <row r="47" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G47" s="27"/>
+      <c r="G47" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -5156,34 +5246,110 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
-      <c r="AN47" s="27"/>
+      <c r="AN47" s="28"/>
       <c r="CB47" s="30"/>
     </row>
     <row r="48" spans="6:80" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G48" s="28"/>
-      <c r="AN48" s="30"/>
+      <c r="G48" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="29"/>
       <c r="CB48" s="30"/>
     </row>
-    <row r="49" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="G49" s="27"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="27"/>
+      <c r="CB49" s="30"/>
+    </row>
+    <row r="50" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="AN50" s="30"/>
+      <c r="CB50" s="30"/>
+    </row>
+    <row r="51" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="7:7" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
       <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="7:80" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="G57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5253,15 +5419,15 @@
       <c r="F7" s="73"/>
     </row>
     <row r="8" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
@@ -5395,17 +5561,17 @@
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
-      <c r="H39" s="100" t="s">
+      <c r="H39" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="100"/>
+      <c r="I39" s="106"/>
       <c r="J39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="100" t="s">
+      <c r="K39" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="100"/>
+      <c r="L39" s="106"/>
       <c r="M39" s="52" t="s">
         <v>58</v>
       </c>
@@ -5596,7 +5762,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="107" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -5604,7 +5770,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="59" t="s">
         <v>85</v>
       </c>
@@ -5664,7 +5830,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -5672,7 +5838,7 @@
       </c>
     </row>
     <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="102"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="35" t="s">
         <v>110</v>
       </c>
@@ -5708,8 +5874,8 @@
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="104"/>
-      <c r="C33" s="105" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="82" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5717,13 +5883,13 @@
       <c r="B34" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="80" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="66"/>
-      <c r="C35" s="103" t="s">
+      <c r="C35" s="80" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5731,7 +5897,7 @@
       <c r="B36" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="80" t="s">
         <v>128</v>
       </c>
     </row>

--- a/01-設計書/設計書.xlsx
+++ b/01-設計書/設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>Input search</t>
     <phoneticPr fontId="5"/>
@@ -814,9 +814,6 @@
     <t>http://developer.android.com/guide/components/intents-filters.html</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/Commons:Chinese_characters_decomposition</t>
-  </si>
-  <si>
     <t>wikimedia commons</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -869,6 +866,18 @@
       </rPr>
       <t>croll up/down button</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/Commons:Chinese_characters_decomposition</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://developer.android.com/training/basics/data-storage/databases.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Saving data in SQLite Database</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1892,6 +1901,12 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1960,12 +1975,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2720,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:CQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
@@ -2875,10 +2884,10 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="86" t="s">
+      <c r="AD8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AE8" s="87"/>
+      <c r="AE8" s="89"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
@@ -2888,7 +2897,7 @@
       <c r="AL8" s="8">
         <v>1</v>
       </c>
-      <c r="AM8" s="99" t="s">
+      <c r="AM8" s="101" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="9"/>
@@ -2911,10 +2920,10 @@
       <c r="BE8" s="9"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="5"/>
-      <c r="BH8" s="86" t="s">
+      <c r="BH8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="BI8" s="87"/>
+      <c r="BI8" s="89"/>
       <c r="BJ8" s="7"/>
       <c r="BN8" s="36" t="s">
         <v>32</v>
@@ -2943,10 +2952,10 @@
       <c r="CL8" s="9"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="5"/>
-      <c r="CO8" s="86" t="s">
+      <c r="CO8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="CP8" s="87"/>
+      <c r="CP8" s="89"/>
       <c r="CQ8" s="36" t="s">
         <v>36</v>
       </c>
@@ -2975,8 +2984,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="89"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="91"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -2984,7 +2993,7 @@
       <c r="AJ9" s="5"/>
       <c r="AK9" s="6"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="100"/>
+      <c r="AM9" s="102"/>
       <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
@@ -3005,8 +3014,8 @@
       <c r="BE9" s="12"/>
       <c r="BF9" s="13"/>
       <c r="BG9" s="5"/>
-      <c r="BH9" s="88"/>
-      <c r="BI9" s="89"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="91"/>
       <c r="BJ9" s="7"/>
       <c r="BS9" s="11"/>
       <c r="BT9" s="12"/>
@@ -3030,8 +3039,8 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
       <c r="CN9" s="5"/>
-      <c r="CO9" s="88"/>
-      <c r="CP9" s="89"/>
+      <c r="CO9" s="90"/>
+      <c r="CP9" s="91"/>
     </row>
     <row r="10" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
@@ -3098,7 +3107,7 @@
     <row r="11" spans="4:95" x14ac:dyDescent="0.2">
       <c r="G11" s="6"/>
       <c r="H11" s="85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
@@ -3266,13 +3275,13 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="90" t="s">
+      <c r="AL13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
-      <c r="AO13" s="91"/>
-      <c r="AP13" s="92"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="94"/>
       <c r="AQ13" s="5"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="9"/>
@@ -3328,11 +3337,11 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="96"/>
+      <c r="AO14" s="96"/>
+      <c r="AP14" s="97"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="15"/>
       <c r="AS14" s="5"/>
@@ -3386,11 +3395,11 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="97"/>
       <c r="AQ15" s="5"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="5"/>
@@ -3476,11 +3485,11 @@
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="97"/>
       <c r="AQ16" s="5"/>
       <c r="AR16" s="15"/>
       <c r="AS16" s="5"/>
@@ -3564,11 +3573,11 @@
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="97"/>
-      <c r="AO17" s="97"/>
-      <c r="AP17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="100"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="11"/>
       <c r="AS17" s="12"/>
@@ -4126,8 +4135,8 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="110" t="s">
-        <v>133</v>
+      <c r="AB25" s="87" t="s">
+        <v>132</v>
       </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -4186,12 +4195,12 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="109" t="s">
+      <c r="AB26" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="86" t="s">
         <v>131</v>
-      </c>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="109" t="s">
-        <v>132</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="7"/>
@@ -5419,15 +5428,15 @@
       <c r="F7" s="73"/>
     </row>
     <row r="8" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
@@ -5561,17 +5570,17 @@
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
-      <c r="H39" s="106" t="s">
+      <c r="H39" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="106"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="106" t="s">
+      <c r="K39" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="L39" s="106"/>
+      <c r="L39" s="108"/>
       <c r="M39" s="52" t="s">
         <v>58</v>
       </c>
@@ -5628,10 +5637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C37"/>
+  <dimension ref="B1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5739,176 +5748,184 @@
     </row>
     <row r="15" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C18" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="107" t="s">
+    <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C19" s="60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="108"/>
-      <c r="C19" s="59" t="s">
+    <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="110"/>
+      <c r="C20" s="59" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="35" t="s">
+    <row r="26" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="44"/>
+      <c r="C26" s="35" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44" t="s">
+    <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C27" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="107" t="s">
+    <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C28" s="35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="108"/>
-      <c r="C28" s="35" t="s">
+    <row r="29" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="110"/>
+      <c r="C29" s="35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="70"/>
-      <c r="C29" s="35" t="s">
+    <row r="30" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="70"/>
+      <c r="C30" s="35" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C33" s="35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82" t="s">
+    <row r="34" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="81"/>
+      <c r="C34" s="82" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="70" t="s">
+    <row r="35" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="66"/>
+      <c r="C36" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="66"/>
-      <c r="C35" s="80" t="s">
+    </row>
+    <row r="37" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
-      <c r="C37" s="79"/>
+    <row r="38" spans="2:3" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="45"/>
+      <c r="C38" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -5920,15 +5937,18 @@
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="C11" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C29" r:id="rId9"/>
-    <hyperlink ref="C17" r:id="rId10"/>
-    <hyperlink ref="C18" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C19" r:id="rId13" location="attr_android:imeOptions"/>
-    <hyperlink ref="C35" r:id="rId14"/>
+    <hyperlink ref="C30" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13" location="attr_android:imeOptions"/>
+    <hyperlink ref="C36" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="C33" r:id="rId16"/>
+    <hyperlink ref="C15" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
